--- a/data/需求更新_2024-12-24/案件还款计划导入模版-v1.0.xlsx
+++ b/data/需求更新_2024-12-24/案件还款计划导入模版-v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28422"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larrychen/work/Contact Project/信也法诉/案件管理系统/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV2024\Larry\case_management\data\需求更新_2024-12-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B7B742-76A5-7041-B044-13FC4EE0772C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4C077B-B542-4A00-859B-AC9B28DEA65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -289,10 +289,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>更新备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>开始还款日期</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -302,6 +298,10 @@
   </si>
   <si>
     <t>开庭/调解/进线/外呼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -532,7 +532,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1020,25 +1020,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1070,16 +1070,16 @@
         <v>80</v>
       </c>
       <c r="K1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>84</v>
-      </c>
       <c r="M1" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
@@ -1112,11 +1112,11 @@
       </c>
       <c r="K2" s="18"/>
       <c r="L2" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1">
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
@@ -1196,17 +1196,17 @@
       <selection activeCell="F11" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="16.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1">
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1">
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1">
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.75" customHeight="1">
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1">
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1">
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1">
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.75" customHeight="1">
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75" customHeight="1">
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.75" customHeight="1">
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.75" customHeight="1">
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.75" customHeight="1">
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.75" customHeight="1">
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18.75" customHeight="1">
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.75" customHeight="1">
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.75" customHeight="1">
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16" customHeight="1">
+    <row r="35" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.75" customHeight="1">
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.75" customHeight="1">
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18.75" customHeight="1">
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18.75" customHeight="1">
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18.75" customHeight="1">
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18.75" customHeight="1">
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18.75" customHeight="1">
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18.75" customHeight="1">
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18.75" customHeight="1">
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16">
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44</v>
       </c>
